--- a/contents/cms/file_template/promotion-template.xlsx
+++ b/contents/cms/file_template/promotion-template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Cart ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,12 +229,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -272,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="O130" workbookViewId="0">
+      <selection activeCell="V129" sqref="V129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -533,11 +540,11 @@
     <col min="16" max="16" width="19.25" style="5" customWidth="1"/>
     <col min="17" max="17" width="14.5" style="6" customWidth="1"/>
     <col min="18" max="20" width="14.5" style="3" customWidth="1"/>
-    <col min="21" max="25" width="9" style="3"/>
-    <col min="26" max="16384" width="9" style="4"/>
+    <col min="21" max="26" width="9" style="3"/>
+    <col min="27" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,8 +620,11 @@
       <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
